--- a/03.xlsx
+++ b/03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{A3289DA6-E866-4B07-9FE0-D203B63DEFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF330128-8F96-4621-8587-07702D2B1A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="2940" windowWidth="28215" windowHeight="15098" xr2:uid="{615CB470-4B48-4322-9452-886F03802E02}"/>
+    <workbookView xWindow="4867" yWindow="4043" windowWidth="28186" windowHeight="15030" xr2:uid="{615CB470-4B48-4322-9452-886F03802E02}"/>
   </bookViews>
   <sheets>
     <sheet name="平均値の差の検定 (等分散)" sheetId="17" r:id="rId1"/>
@@ -27,7 +27,6 @@
     <sheet name="サンプルサイズの計算 (対応のあるデータ)" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1113,7 +1112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1233,9 +1232,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
@@ -2192,20 +2188,20 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.149999999999999" x14ac:dyDescent="0.7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>49</v>
       </c>
       <c r="B4">
         <v>65</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="8">
         <f>ABS(B5-B4)/B6</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="41" t="s">
         <v>51</v>
       </c>
       <c r="H4" s="8">
@@ -2217,19 +2213,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.149999999999999" x14ac:dyDescent="0.7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B5">
         <v>57</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>3</v>
       </c>
       <c r="E5">
         <v>0.05</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="8">
@@ -2238,19 +2234,19 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>15</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4">
         <v>0.8</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="42" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="4">
@@ -2314,20 +2310,20 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.149999999999999" x14ac:dyDescent="0.7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>49</v>
       </c>
       <c r="B4">
         <v>65</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="8">
         <f>SQRT((B6^2+B7^2)/2)</f>
         <v>14.035668847618199</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="41" t="s">
         <v>51</v>
       </c>
       <c r="H4" s="8">
@@ -2339,20 +2335,20 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.149999999999999" x14ac:dyDescent="0.7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B5">
         <v>57</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="8">
         <f>(B4-B5)/E4</f>
         <v>0.5699763999032772</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="8">
@@ -2361,40 +2357,40 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.149999999999999" x14ac:dyDescent="0.7">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>53</v>
       </c>
       <c r="B6">
         <v>13</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>3</v>
       </c>
       <c r="E6">
         <v>0.05</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6">
         <f>ROUNDUP((H4+H5)^2*(1+1/B8)/E5^2,0)</f>
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="19.149999999999999" x14ac:dyDescent="0.7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>54</v>
       </c>
       <c r="B7">
         <v>15</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="4">
         <v>0.8</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="42" t="s">
         <v>56</v>
       </c>
       <c r="H7" s="4">
@@ -2403,21 +2399,21 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="19.149999999999999" x14ac:dyDescent="0.7">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="10" spans="1:9" ht="19.149999999999999" x14ac:dyDescent="0.7">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2476,20 +2472,20 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.149999999999999" x14ac:dyDescent="0.7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>49</v>
       </c>
       <c r="B4">
         <v>60</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="8">
         <f>ABS(B5-B4)/B6</f>
         <v>0.5</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="41" t="s">
         <v>59</v>
       </c>
       <c r="H4" s="8">
@@ -2501,19 +2497,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="19.149999999999999" x14ac:dyDescent="0.7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B5">
         <v>65</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>3</v>
       </c>
       <c r="E5">
         <v>0.05</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="41" t="s">
         <v>52</v>
       </c>
       <c r="H5" s="8">
@@ -2522,19 +2518,19 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4">
         <v>0.8</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="42" t="s">
         <v>0</v>
       </c>
       <c r="H6" s="4">
@@ -2554,7 +2550,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -2773,7 +2769,7 @@
         <v>24</v>
       </c>
       <c r="K11" s="34">
-        <f>ABS(G5-H5)/SQRT((G6^2+H6^2)/2)</f>
+        <f>ABS(G5-H5)/K4</f>
         <v>0.62790661001981174</v>
       </c>
     </row>
@@ -3488,7 +3484,7 @@
   <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -4792,13 +4788,13 @@
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
     <row r="1" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="45"/>
+      <c r="A1" s="44"/>
     </row>
     <row r="2" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="46"/>
+      <c r="A2" s="45"/>
     </row>
     <row r="3" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="46"/>
+      <c r="A3" s="45"/>
     </row>
     <row r="4" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.7"/>
     <row r="5" spans="1:1" ht="17.350000000000001" customHeight="1" x14ac:dyDescent="0.7"/>
